--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5104D806-C06D-4A41-8BC5-BE5D21B55FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF91E6C-A299-4817-819E-0DC47F8638B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -133,13 +133,28 @@
   </si>
   <si>
     <t>DropDownList Selection Not Working Correctly When Virtual Scrolling Enabled</t>
+  </si>
+  <si>
+    <t>Drag drop of multiple nodes only shows one node in args</t>
+  </si>
+  <si>
+    <t>Vol 1</t>
+  </si>
+  <si>
+    <t>RadioButtonFor with boolean</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>Dropdownlist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF353535"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -177,13 +185,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF353535"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,9 +240,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -241,18 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -261,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -276,46 +281,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,319 +652,349 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="11"/>
-    <col min="7" max="7" width="13.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="9"/>
+    <col min="7" max="7" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="21" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:7" s="6" customFormat="1">
+      <c r="A3" s="4">
         <v>261028</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" s="6" customFormat="1">
+      <c r="A4" s="4">
         <v>263245</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43866</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:7" s="6" customFormat="1">
+      <c r="A5" s="4">
         <v>262595</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>43881</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:7" s="6" customFormat="1">
+      <c r="A6" s="4">
         <v>264330</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>43886</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:7" s="6" customFormat="1">
+      <c r="A7" s="4">
         <v>261830</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>43886</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:7" s="6" customFormat="1">
+      <c r="A8" s="4">
         <v>266148</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43889</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="29">
+      <c r="A9" s="15">
         <v>266699</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="18">
         <v>43887</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
         <v>263939</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="29">
+      <c r="A11" s="8">
         <v>267451</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="10">
         <v>43903</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1">
+      <c r="A12" s="11">
         <v>264330</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="14">
         <v>43903</v>
       </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>152199</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.5">
+      <c r="A14" s="8">
+        <v>152235</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10">
+        <v>43915</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="29">
+      <c r="A15" s="27">
+        <v>267451</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="29">
+        <v>43908</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF91E6C-A299-4817-819E-0DC47F8638B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E500C653-5425-4C56-AD8B-9FA0748092C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -148,13 +148,22 @@
   </si>
   <si>
     <t>Dropdownlist</t>
+  </si>
+  <si>
+    <t>Listbox</t>
+  </si>
+  <si>
+    <t>List box doesn't show 'false' string</t>
+  </si>
+  <si>
+    <t>Muthu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,11 +192,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="5">
@@ -252,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -284,18 +288,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -321,20 +313,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +651,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.90625" style="9" bestFit="1" customWidth="1"/>
@@ -667,27 +666,27 @@
     <col min="8" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>261028</v>
       </c>
@@ -727,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>263245</v>
       </c>
@@ -747,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1">
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>262595</v>
       </c>
@@ -767,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>264330</v>
       </c>
@@ -790,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>261830</v>
       </c>
@@ -809,11 +808,11 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>266148</v>
       </c>
@@ -832,31 +831,31 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="29">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>266699</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>43887</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>263939</v>
       </c>
@@ -866,7 +865,7 @@
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -874,43 +873,43 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>267451</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="27">
         <v>43903</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1">
-      <c r="A12" s="11">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>264330</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="27">
         <v>43903</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>152199</v>
       </c>
@@ -920,7 +919,7 @@
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -928,7 +927,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>152235</v>
       </c>
@@ -938,7 +937,7 @@
       <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="10">
@@ -946,33 +945,45 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="29">
-      <c r="A15" s="27">
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="21">
         <v>267451</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="23">
         <v>43908</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>269285</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23">
+        <v>43914</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -980,7 +991,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -988,7 +999,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>

--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E500C653-5425-4C56-AD8B-9FA0748092C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE3D7F-CA35-48CB-A283-A8B2E204153A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Control</t>
   </si>
@@ -42,9 +39,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Feedback- 11311</t>
-  </si>
-  <si>
     <t>EjsTreeView - NodeTemplate is Not Handling Context Item Enums Correctly </t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>EJ1</t>
   </si>
   <si>
-    <t>contextMenu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feb 2 week </t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>EJ1/EJ2</t>
   </si>
   <si>
-    <t>Promised Date/Patch</t>
-  </si>
-  <si>
     <t>Freeze Filter selection</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>Unable to start ASP.Net MVC webapp after adding nuget package syncfusion.aspnet.mvc5</t>
   </si>
   <si>
-    <t>listbox</t>
-  </si>
-  <si>
     <t>ejListBox reset data source and enableIncrementalSearch</t>
   </si>
   <si>
@@ -156,7 +141,28 @@
     <t>List box doesn't show 'false' string</t>
   </si>
   <si>
-    <t>Muthu</t>
+    <t>Updated Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>F11311</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ContextMenu</t>
+  </si>
+  <si>
+    <t>Promised Date /Patch</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -313,9 +319,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -325,13 +328,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,364 +656,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD306F89-E025-408D-9D47-2862068C9AD7}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.90625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="9"/>
-    <col min="7" max="7" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="9"/>
+    <col min="5" max="5" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>261028</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43873</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>263245</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>43866</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43867</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>262595</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7">
         <v>43881</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43881</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>264330</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7">
         <v>43886</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43885</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>261830</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7">
         <v>43886</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43886</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>266148</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>43889</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43889</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>266699</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="14">
         <v>43887</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43887</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>263939</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>267451</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43903</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43906</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>264330</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7">
+        <v>43906</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>152199</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>267451</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="27">
-        <v>43903</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>264330</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="27">
-        <v>43903</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>152199</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>152235</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="10">
         <v>43915</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
+      <c r="F14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
         <v>267451</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="29">
+        <v>43908</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="23">
-        <v>43908</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="G15" s="29">
+        <v>43906</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
         <v>269285</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="B16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="22">
         <v>43914</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE3D7F-CA35-48CB-A283-A8B2E204153A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF70EE-BED3-47EA-80A4-9F2CCFA30A7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Control</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Promised Date /Patch</t>
+  </si>
+  <si>
+    <t>FileExplorer in BootStrap 3 Modal</t>
+  </si>
+  <si>
+    <t>FileExplorer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +204,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -262,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -341,6 +354,9 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD306F89-E025-408D-9D47-2862068C9AD7}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1084,11 +1100,21 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="8">
+        <v>269813</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43930</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>

--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF70EE-BED3-47EA-80A4-9F2CCFA30A7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E95B4-2FDB-46F9-B640-843C49FF05C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,5 +1141,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Promised Incidents.xlsx
+++ b/Promised Incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SyncfusionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240072B-5E21-4797-AD61-4887D0F89DEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A2953-1BB6-4CE8-9812-D002BD96AFD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DA94DFC5-6F67-4698-9BB4-4B99735D4326}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>Control</t>
   </si>
@@ -223,13 +223,19 @@
   </si>
   <si>
     <t>S No</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Feedback : Feedback Page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +264,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -314,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -337,9 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -370,12 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -390,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD306F89-E025-408D-9D47-2862068C9AD7}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,35 +737,35 @@
     <col min="11" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -772,7 +782,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -798,7 +808,7 @@
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -827,7 +837,7 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2">
@@ -856,7 +866,7 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2">
@@ -871,7 +881,7 @@
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -888,7 +898,7 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2">
@@ -917,7 +927,7 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2">
@@ -946,7 +956,7 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2">
@@ -966,7 +976,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>266699</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -975,7 +985,7 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2">
@@ -1004,7 +1014,7 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2">
@@ -1013,7 +1023,7 @@
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1030,7 +1040,7 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2">
@@ -1059,7 +1069,7 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2">
@@ -1088,7 +1098,7 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1117,7 +1127,7 @@
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2">
@@ -1135,13 +1145,13 @@
       <c r="B15" s="1">
         <v>267451</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="6">
@@ -1153,24 +1163,24 @@
       <c r="H15" s="6">
         <v>43906</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>269285</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="6">
@@ -1182,7 +1192,7 @@
       <c r="H16" s="6">
         <v>43914</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1199,7 +1209,7 @@
       <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="2">
@@ -1228,7 +1238,7 @@
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1251,7 +1261,7 @@
       <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -1261,27 +1271,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>269689</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>43941</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="16" t="s">
         <v>54</v>
+      </c>
+      <c r="H20" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1297,7 +1313,7 @@
       <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1307,27 +1323,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>271382</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>43942</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43942</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1343,7 +1365,7 @@
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1366,7 +1388,7 @@
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1389,13 +1411,36 @@
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>273828</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43951</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>54</v>
       </c>
     </row>
